--- a/小游戏.xlsx
+++ b/小游戏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>新分成比例（流水）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>开发者日分成 原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发者月分成 新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,6 +89,10 @@
 累计独立访问用户（UV）不低于1000且无严重违规记录的小程序都可以在后台自助申请开通广告位。
 从微信官方公布的信息来看，在道具内购分成方面，安卓系统的道具内购采取6:4的分成比例。4月19日微信修改扶持计划，如果在2018年月经营流水低于50万元，微信不抽取40%的道具内购分成，50万以上抽成不变。
 广告收入分成规则是：小游戏单日广告收入流水10万元以内（包含10万元），开发者可获其中50%的分成；单日广告收入流水超过10万元的部分，开发者可获其中30%的分成，腾讯获得70%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者月分成 原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,10 +147,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,9 +475,11 @@
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="21" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,34 +499,58 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -543,7 +569,7 @@
         <v>30000</v>
       </c>
       <c r="F2" s="2">
-        <f>C2/$A$12</f>
+        <f>C2/$A$13</f>
         <v>3333333.3333333335</v>
       </c>
       <c r="H2" s="3">
@@ -580,8 +606,38 @@
         <f>O2/I2</f>
         <v>16000</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2" s="3">
+        <f>500000/25*R2*S2</f>
+        <v>60000</v>
+      </c>
+      <c r="U2" s="3">
+        <f>H2-T2</f>
+        <v>840000</v>
+      </c>
+      <c r="V2" s="3">
+        <f>U2*100%</f>
+        <v>840000</v>
+      </c>
+      <c r="W2" s="3">
+        <f>V2*50%</f>
+        <v>420000</v>
+      </c>
+      <c r="X2" s="3">
+        <f>V2*50%</f>
+        <v>420000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>X2/R2</f>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C3" s="2">
         <v>1000000</v>
       </c>
@@ -594,7 +650,7 @@
         <v>300000</v>
       </c>
       <c r="F3" s="2">
-        <f>C3/$A$12</f>
+        <f>C3/$A$13</f>
         <v>33333333.333333336</v>
       </c>
       <c r="H3" s="3">
@@ -631,8 +687,38 @@
         <f>O3/I3</f>
         <v>88000</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3" s="3">
+        <f>500000/25*R3*S3</f>
+        <v>60000</v>
+      </c>
+      <c r="U3" s="3">
+        <f>H3-T3</f>
+        <v>8940000</v>
+      </c>
+      <c r="V3" s="3">
+        <f>U3*100%</f>
+        <v>8940000</v>
+      </c>
+      <c r="W3" s="3">
+        <f>V3*50%</f>
+        <v>4470000</v>
+      </c>
+      <c r="X3" s="3">
+        <f>V3*50%</f>
+        <v>4470000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>X3/R3</f>
+        <v>4470000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C4" s="2">
         <f>C3*10</f>
         <v>10000000</v>
@@ -646,44 +732,102 @@
         <v>3000000</v>
       </c>
       <c r="F4" s="2">
-        <f>C4/$A$12</f>
+        <f>C4/$A$13</f>
         <v>333333333.33333337</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5*$A$2</f>
+        <v>5000</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5*$B$2</f>
+        <v>3000</v>
+      </c>
+      <c r="F5" s="2">
+        <f>C5/$A$13</f>
+        <v>333333.33333333337</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5*30</f>
+        <v>90000</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="T5" s="3">
+        <f>500000/25*R5*S5</f>
+        <v>60000</v>
+      </c>
+      <c r="U5" s="3">
+        <f>H5-T5</f>
+        <v>30000</v>
+      </c>
+      <c r="V5" s="3">
+        <f>U5*100%</f>
+        <v>30000</v>
+      </c>
+      <c r="W5" s="3">
+        <f>V5*50%</f>
+        <v>15000</v>
+      </c>
+      <c r="X5" s="3">
+        <f>V5*50%</f>
+        <v>15000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>X5/R5</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <f>AVERAGE(A7:A8)</f>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <f>AVERAGE(A8:A9)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <f>A10/1000000</f>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <f>A11/1000000</f>
         <v>0.03</v>
       </c>
     </row>
@@ -698,18 +842,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
+      <c r="A1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
